--- a/y-Manipulated Tables/DataSet/Tables/CITY_CORPORATION.xlsx
+++ b/y-Manipulated Tables/DataSet/Tables/CITY_CORPORATION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Final Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409AC109-9224-4F8B-A1A2-5BAA243CCA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0811BD0-90EA-4FAF-91E8-85E754E44B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>corpID</t>
   </si>
@@ -37,16 +37,244 @@
   </si>
   <si>
     <t>locID</t>
+  </si>
+  <si>
+    <t>fminBan</t>
+  </si>
+  <si>
+    <t>fminUSA</t>
+  </si>
+  <si>
+    <t>fminUK</t>
+  </si>
+  <si>
+    <t>fminUkr</t>
+  </si>
+  <si>
+    <t>cntBan</t>
+  </si>
+  <si>
+    <t>cntUK</t>
+  </si>
+  <si>
+    <t>cntUkr</t>
+  </si>
+  <si>
+    <t>cntUSA</t>
+  </si>
+  <si>
+    <t>Barishal City Corporation</t>
+  </si>
+  <si>
+    <t>Chittagong City Corporation</t>
+  </si>
+  <si>
+    <t>Comilla City Corporation</t>
+  </si>
+  <si>
+    <t>Dhaka North City Corporation</t>
+  </si>
+  <si>
+    <t>Dhaka South City Corporation</t>
+  </si>
+  <si>
+    <t>Gazipur City Corporation</t>
+  </si>
+  <si>
+    <t>Narayanganj City Corporation</t>
+  </si>
+  <si>
+    <t>Khulna City Corporation</t>
+  </si>
+  <si>
+    <t>Mymensingh City Corporation</t>
+  </si>
+  <si>
+    <t>Rajshahi City Corporation</t>
+  </si>
+  <si>
+    <t>Rangpur City Corporation</t>
+  </si>
+  <si>
+    <t>Sylhet City Corporation</t>
+  </si>
+  <si>
+    <t>corpBan1</t>
+  </si>
+  <si>
+    <t>corpBan2</t>
+  </si>
+  <si>
+    <t>corpBan3</t>
+  </si>
+  <si>
+    <t>corpBan4</t>
+  </si>
+  <si>
+    <t>corpBan5</t>
+  </si>
+  <si>
+    <t>corpBan6</t>
+  </si>
+  <si>
+    <t>corpBan7</t>
+  </si>
+  <si>
+    <t>corpBan8</t>
+  </si>
+  <si>
+    <t>corpBan9</t>
+  </si>
+  <si>
+    <t>corpBan10</t>
+  </si>
+  <si>
+    <t>corpBan11</t>
+  </si>
+  <si>
+    <t>corpBan12</t>
+  </si>
+  <si>
+    <t>corpUK1</t>
+  </si>
+  <si>
+    <t>corpUK2</t>
+  </si>
+  <si>
+    <t>corpUK3</t>
+  </si>
+  <si>
+    <t>corpUK4</t>
+  </si>
+  <si>
+    <t>corpUK5</t>
+  </si>
+  <si>
+    <t>corpUK6</t>
+  </si>
+  <si>
+    <t>corpUK7</t>
+  </si>
+  <si>
+    <t>corpUK8</t>
+  </si>
+  <si>
+    <t>corpUK9</t>
+  </si>
+  <si>
+    <t>corpUK10</t>
+  </si>
+  <si>
+    <t>corpUK11</t>
+  </si>
+  <si>
+    <t>corpUK12</t>
+  </si>
+  <si>
+    <t>corpUK13</t>
+  </si>
+  <si>
+    <t>corpUK14</t>
+  </si>
+  <si>
+    <t>corpUK15</t>
+  </si>
+  <si>
+    <t>corUkr1</t>
+  </si>
+  <si>
+    <t>corUkr2</t>
+  </si>
+  <si>
+    <t>corUkr3</t>
+  </si>
+  <si>
+    <t>corUkr4</t>
+  </si>
+  <si>
+    <t>corUkr5</t>
+  </si>
+  <si>
+    <t>corUkr6</t>
+  </si>
+  <si>
+    <t>corUkr7</t>
+  </si>
+  <si>
+    <t>corUkr8</t>
+  </si>
+  <si>
+    <t>corUkr9</t>
+  </si>
+  <si>
+    <t>corUkr10</t>
+  </si>
+  <si>
+    <t>corUkr11</t>
+  </si>
+  <si>
+    <t>corUkr12</t>
+  </si>
+  <si>
+    <t>corpUSA1</t>
+  </si>
+  <si>
+    <t>corpUSA2</t>
+  </si>
+  <si>
+    <t>corpUSA3</t>
+  </si>
+  <si>
+    <t>corpUSA4</t>
+  </si>
+  <si>
+    <t>corpUSA5</t>
+  </si>
+  <si>
+    <t>corpUSA6</t>
+  </si>
+  <si>
+    <t>corpUSA7</t>
+  </si>
+  <si>
+    <t>corpUSA8</t>
+  </si>
+  <si>
+    <t>corpUSA9</t>
+  </si>
+  <si>
+    <t>corpUSA10</t>
+  </si>
+  <si>
+    <t>corpUSA11</t>
+  </si>
+  <si>
+    <t>corpUSA12</t>
+  </si>
+  <si>
+    <t>corpUSA13</t>
+  </si>
+  <si>
+    <t>corpUSA14</t>
+  </si>
+  <si>
+    <t>corpUSA15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,15 +582,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -379,7 +608,642 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C55">
+    <sortCondition ref="C2:C55"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/y-Manipulated Tables/DataSet/Tables/CITY_CORPORATION.xlsx
+++ b/y-Manipulated Tables/DataSet/Tables/CITY_CORPORATION.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0811BD0-90EA-4FAF-91E8-85E754E44B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A016E-928F-4ACA-9C51-E439048DFD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1815" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -584,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
